--- a/target/classes/TestData.xlsx
+++ b/target/classes/TestData.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="60" windowWidth="22932" windowHeight="9504"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Status</t>
+    <t xml:space="preserve">Username </t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
   <si>
     <t>mercury</t>
@@ -36,6 +36,12 @@
     <t>fail</t>
   </si>
   <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
     <t>itest@test.com</t>
   </si>
   <si>
@@ -45,13 +51,7 @@
     <t>pass</t>
   </si>
   <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>admin123</t>
-  </si>
-  <si>
-    <t>kavyasreedoddam@gmail.com</t>
+    <t>kavyasree@gmail.com</t>
   </si>
   <si>
     <t>Kavya</t>
@@ -77,18 +77,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -107,9 +101,8 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -414,19 +407,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -442,42 +434,42 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
     <hyperlink ref="A5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
